--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Agrp-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Agrp-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Agrp</t>
+  </si>
+  <si>
+    <t>Sdc3</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Agrp</t>
-  </si>
-  <si>
-    <t>Sdc3</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2267823333333333</v>
+        <v>0.8031959999999999</v>
       </c>
       <c r="H2">
-        <v>0.680347</v>
+        <v>2.409588</v>
       </c>
       <c r="I2">
-        <v>0.08883524641917039</v>
+        <v>0.3021857029182209</v>
       </c>
       <c r="J2">
-        <v>0.09044811331728878</v>
+        <v>0.3021857029182209</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.68083366666667</v>
+        <v>26.23985166666667</v>
       </c>
       <c r="N2">
-        <v>83.042501</v>
+        <v>78.719555</v>
       </c>
       <c r="O2">
-        <v>0.1459618213622149</v>
+        <v>0.09560625159817936</v>
       </c>
       <c r="P2">
-        <v>0.1475036943464798</v>
+        <v>0.09631575414263932</v>
       </c>
       <c r="Q2">
-        <v>6.277524047538556</v>
+        <v>21.07574389926</v>
       </c>
       <c r="R2">
-        <v>56.497716427847</v>
+        <v>189.68169509334</v>
       </c>
       <c r="S2">
-        <v>0.01296655436850329</v>
+        <v>0.02889084234257211</v>
       </c>
       <c r="T2">
-        <v>0.01334143086096913</v>
+        <v>0.02910524386769201</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2267823333333333</v>
+        <v>0.8031959999999999</v>
       </c>
       <c r="H3">
-        <v>0.680347</v>
+        <v>2.409588</v>
       </c>
       <c r="I3">
-        <v>0.08883524641917039</v>
+        <v>0.3021857029182209</v>
       </c>
       <c r="J3">
-        <v>0.09044811331728878</v>
+        <v>0.3021857029182209</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>86.62195199999999</v>
       </c>
       <c r="O3">
-        <v>0.1522533369252734</v>
+        <v>0.1052038484825964</v>
       </c>
       <c r="P3">
-        <v>0.1538616705619625</v>
+        <v>0.1059845756519775</v>
       </c>
       <c r="Q3">
-        <v>6.548109464149332</v>
+        <v>23.19146845286399</v>
       </c>
       <c r="R3">
-        <v>58.932985177344</v>
+        <v>208.723216075776</v>
       </c>
       <c r="S3">
-        <v>0.01352546270389763</v>
+        <v>0.03179109890341541</v>
       </c>
       <c r="T3">
-        <v>0.01391649781417574</v>
+        <v>0.03202702349188218</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2267823333333333</v>
+        <v>0.8031959999999999</v>
       </c>
       <c r="H4">
-        <v>0.680347</v>
+        <v>2.409588</v>
       </c>
       <c r="I4">
-        <v>0.08883524641917039</v>
+        <v>0.3021857029182209</v>
       </c>
       <c r="J4">
-        <v>0.09044811331728878</v>
+        <v>0.3021857029182209</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>67.08300833333332</v>
+        <v>108.455335</v>
       </c>
       <c r="N4">
-        <v>201.249025</v>
+        <v>325.366005</v>
       </c>
       <c r="O4">
-        <v>0.3537306064080358</v>
+        <v>0.3951626014085634</v>
       </c>
       <c r="P4">
-        <v>0.3574672524750558</v>
+        <v>0.3980951384183098</v>
       </c>
       <c r="Q4">
-        <v>15.21324115685278</v>
+        <v>87.11089125065999</v>
       </c>
       <c r="R4">
-        <v>136.919170411675</v>
+        <v>783.9980212559399</v>
       </c>
       <c r="S4">
-        <v>0.03142374558626043</v>
+        <v>0.1194124884736395</v>
       </c>
       <c r="T4">
-        <v>0.03233223855908372</v>
+        <v>0.1202986592312634</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2267823333333333</v>
+        <v>0.8031959999999999</v>
       </c>
       <c r="H5">
-        <v>0.680347</v>
+        <v>2.409588</v>
       </c>
       <c r="I5">
-        <v>0.08883524641917039</v>
+        <v>0.3021857029182209</v>
       </c>
       <c r="J5">
-        <v>0.09044811331728878</v>
+        <v>0.3021857029182209</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.947122</v>
+        <v>6.0653095</v>
       </c>
       <c r="N5">
-        <v>11.894244</v>
+        <v>12.130619</v>
       </c>
       <c r="O5">
-        <v>0.03135934305434629</v>
+        <v>0.02209926768810472</v>
       </c>
       <c r="P5">
-        <v>0.02112707240667585</v>
+        <v>0.01484217888683478</v>
       </c>
       <c r="Q5">
-        <v>1.348702203778</v>
+        <v>4.871632329161999</v>
       </c>
       <c r="R5">
-        <v>8.092213222668001</v>
+        <v>29.229793974972</v>
       </c>
       <c r="S5">
-        <v>0.002785814967776152</v>
+        <v>0.006678082740307852</v>
       </c>
       <c r="T5">
-        <v>0.001910903839101582</v>
+        <v>0.004485094259756145</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2267823333333333</v>
+        <v>0.8031959999999999</v>
       </c>
       <c r="H6">
-        <v>0.680347</v>
+        <v>2.409588</v>
       </c>
       <c r="I6">
-        <v>0.08883524641917039</v>
+        <v>0.3021857029182209</v>
       </c>
       <c r="J6">
-        <v>0.09044811331728878</v>
+        <v>0.3021857029182209</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.05939466666666</v>
+        <v>104.823008</v>
       </c>
       <c r="N6">
-        <v>180.178184</v>
+        <v>314.469024</v>
       </c>
       <c r="O6">
-        <v>0.3166948922501296</v>
+        <v>0.3819280308225561</v>
       </c>
       <c r="P6">
-        <v>0.3200403102098262</v>
+        <v>0.3847623529002386</v>
       </c>
       <c r="Q6">
-        <v>13.62040966109422</v>
+        <v>84.19342073356799</v>
       </c>
       <c r="R6">
-        <v>122.583686949848</v>
+        <v>757.7407866021119</v>
       </c>
       <c r="S6">
-        <v>0.02813366879273288</v>
+        <v>0.1154131904582861</v>
       </c>
       <c r="T6">
-        <v>0.02894704224395861</v>
+        <v>0.1162696820676272</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8031959999999999</v>
+        <v>1.460649333333333</v>
       </c>
       <c r="H7">
-        <v>2.409588</v>
+        <v>4.381948</v>
       </c>
       <c r="I7">
-        <v>0.3146281878933484</v>
+        <v>0.5495387744838921</v>
       </c>
       <c r="J7">
-        <v>0.320340485769731</v>
+        <v>0.5495387744838921</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.68083366666667</v>
+        <v>26.23985166666667</v>
       </c>
       <c r="N7">
-        <v>83.042501</v>
+        <v>78.719555</v>
       </c>
       <c r="O7">
-        <v>0.1459618213622149</v>
+        <v>0.09560625159817936</v>
       </c>
       <c r="P7">
-        <v>0.1475036943464798</v>
+        <v>0.09631575414263932</v>
       </c>
       <c r="Q7">
-        <v>22.233134877732</v>
+        <v>38.32722184368222</v>
       </c>
       <c r="R7">
-        <v>200.098213899588</v>
+        <v>344.94499659314</v>
       </c>
       <c r="S7">
-        <v>0.0459237033568063</v>
+        <v>0.05253934233626213</v>
       </c>
       <c r="T7">
-        <v>0.04725140509978127</v>
+        <v>0.05292924149503787</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8031959999999999</v>
+        <v>1.460649333333333</v>
       </c>
       <c r="H8">
-        <v>2.409588</v>
+        <v>4.381948</v>
       </c>
       <c r="I8">
-        <v>0.3146281878933484</v>
+        <v>0.5495387744838921</v>
       </c>
       <c r="J8">
-        <v>0.320340485769731</v>
+        <v>0.5495387744838921</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>86.62195199999999</v>
       </c>
       <c r="O8">
-        <v>0.1522533369252734</v>
+        <v>0.1052038484825964</v>
       </c>
       <c r="P8">
-        <v>0.1538616705619625</v>
+        <v>0.1059845756519775</v>
       </c>
       <c r="Q8">
-        <v>23.19146845286399</v>
+        <v>42.17476548027733</v>
       </c>
       <c r="R8">
-        <v>208.723216075776</v>
+        <v>379.572889322496</v>
       </c>
       <c r="S8">
-        <v>0.04790319149751419</v>
+        <v>0.0578135939661151</v>
       </c>
       <c r="T8">
-        <v>0.0492881222891614</v>
+        <v>0.05824263381798307</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8031959999999999</v>
+        <v>1.460649333333333</v>
       </c>
       <c r="H9">
-        <v>2.409588</v>
+        <v>4.381948</v>
       </c>
       <c r="I9">
-        <v>0.3146281878933484</v>
+        <v>0.5495387744838921</v>
       </c>
       <c r="J9">
-        <v>0.320340485769731</v>
+        <v>0.5495387744838921</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>67.08300833333332</v>
+        <v>108.455335</v>
       </c>
       <c r="N9">
-        <v>201.249025</v>
+        <v>325.366005</v>
       </c>
       <c r="O9">
-        <v>0.3537306064080358</v>
+        <v>0.3951626014085634</v>
       </c>
       <c r="P9">
-        <v>0.3574672524750558</v>
+        <v>0.3980951384183098</v>
       </c>
       <c r="Q9">
-        <v>53.88080396129999</v>
+        <v>158.4152127641933</v>
       </c>
       <c r="R9">
-        <v>484.9272356517</v>
+        <v>1425.73691487774</v>
       </c>
       <c r="S9">
-        <v>0.1112936196965755</v>
+        <v>0.2171571716999287</v>
       </c>
       <c r="T9">
-        <v>0.1145112333046304</v>
+        <v>0.2187687144943934</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8031959999999999</v>
+        <v>1.460649333333333</v>
       </c>
       <c r="H10">
-        <v>2.409588</v>
+        <v>4.381948</v>
       </c>
       <c r="I10">
-        <v>0.3146281878933484</v>
+        <v>0.5495387744838921</v>
       </c>
       <c r="J10">
-        <v>0.320340485769731</v>
+        <v>0.5495387744838921</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.947122</v>
+        <v>6.0653095</v>
       </c>
       <c r="N10">
-        <v>11.894244</v>
+        <v>12.130619</v>
       </c>
       <c r="O10">
-        <v>0.03135934305434629</v>
+        <v>0.02209926768810472</v>
       </c>
       <c r="P10">
-        <v>0.02112707240667585</v>
+        <v>0.01484217888683478</v>
       </c>
       <c r="Q10">
-        <v>4.776704601912</v>
+        <v>8.859290277635333</v>
       </c>
       <c r="R10">
-        <v>28.660227611472</v>
+        <v>53.155741665812</v>
       </c>
       <c r="S10">
-        <v>0.009866533278714834</v>
+        <v>0.01214440448231254</v>
       </c>
       <c r="T10">
-        <v>0.006767856637646822</v>
+        <v>0.008156352796141882</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8031959999999999</v>
+        <v>1.460649333333333</v>
       </c>
       <c r="H11">
-        <v>2.409588</v>
+        <v>4.381948</v>
       </c>
       <c r="I11">
-        <v>0.3146281878933484</v>
+        <v>0.5495387744838921</v>
       </c>
       <c r="J11">
-        <v>0.320340485769731</v>
+        <v>0.5495387744838921</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.05939466666666</v>
+        <v>104.823008</v>
       </c>
       <c r="N11">
-        <v>180.178184</v>
+        <v>314.469024</v>
       </c>
       <c r="O11">
-        <v>0.3166948922501296</v>
+        <v>0.3819280308225561</v>
       </c>
       <c r="P11">
-        <v>0.3200403102098262</v>
+        <v>0.3847623529002386</v>
       </c>
       <c r="Q11">
-        <v>48.23946555868799</v>
+        <v>153.1096567531947</v>
       </c>
       <c r="R11">
-        <v>434.155190028192</v>
+        <v>1377.986910778752</v>
       </c>
       <c r="S11">
-        <v>0.09964114006373752</v>
+        <v>0.2098842619992737</v>
       </c>
       <c r="T11">
-        <v>0.1025218684385111</v>
+        <v>0.2114418318803359</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.7443023333333333</v>
+        <v>0.3941096666666666</v>
       </c>
       <c r="H12">
-        <v>2.232907</v>
+        <v>1.182329</v>
       </c>
       <c r="I12">
-        <v>0.2915583423989383</v>
+        <v>0.148275522597887</v>
       </c>
       <c r="J12">
-        <v>0.2968517908699051</v>
+        <v>0.148275522597887</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>27.68083366666667</v>
+        <v>26.23985166666667</v>
       </c>
       <c r="N12">
-        <v>83.042501</v>
+        <v>78.719555</v>
       </c>
       <c r="O12">
-        <v>0.1459618213622149</v>
+        <v>0.09560625159817936</v>
       </c>
       <c r="P12">
-        <v>0.1475036943464798</v>
+        <v>0.09631575414263932</v>
       </c>
       <c r="Q12">
-        <v>20.60290908671189</v>
+        <v>10.34137919373278</v>
       </c>
       <c r="R12">
-        <v>185.426181780407</v>
+        <v>93.072412743595</v>
       </c>
       <c r="S12">
-        <v>0.04255638668989731</v>
+        <v>0.01417606691934511</v>
       </c>
       <c r="T12">
-        <v>0.04378673582667963</v>
+        <v>0.01428126877990944</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.7443023333333333</v>
+        <v>0.3941096666666666</v>
       </c>
       <c r="H13">
-        <v>2.232907</v>
+        <v>1.182329</v>
       </c>
       <c r="I13">
-        <v>0.2915583423989383</v>
+        <v>0.148275522597887</v>
       </c>
       <c r="J13">
-        <v>0.2968517908699051</v>
+        <v>0.148275522597887</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>86.62195199999999</v>
       </c>
       <c r="O13">
-        <v>0.1522533369252734</v>
+        <v>0.1052038484825964</v>
       </c>
       <c r="P13">
-        <v>0.1538616705619625</v>
+        <v>0.1059845756519775</v>
       </c>
       <c r="Q13">
-        <v>21.49097366382933</v>
+        <v>11.37951620957866</v>
       </c>
       <c r="R13">
-        <v>193.418762974464</v>
+        <v>102.415645886208</v>
       </c>
       <c r="S13">
-        <v>0.04439073053863977</v>
+        <v>0.0155991556130659</v>
       </c>
       <c r="T13">
-        <v>0.04567411245255393</v>
+        <v>0.01571491834211225</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.7443023333333333</v>
+        <v>0.3941096666666666</v>
       </c>
       <c r="H14">
-        <v>2.232907</v>
+        <v>1.182329</v>
       </c>
       <c r="I14">
-        <v>0.2915583423989383</v>
+        <v>0.148275522597887</v>
       </c>
       <c r="J14">
-        <v>0.2968517908699051</v>
+        <v>0.148275522597887</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>67.08300833333332</v>
+        <v>108.455335</v>
       </c>
       <c r="N14">
-        <v>201.249025</v>
+        <v>325.366005</v>
       </c>
       <c r="O14">
-        <v>0.3537306064080358</v>
+        <v>0.3951626014085634</v>
       </c>
       <c r="P14">
-        <v>0.3574672524750558</v>
+        <v>0.3980951384183098</v>
       </c>
       <c r="Q14">
-        <v>49.93003962951943</v>
+        <v>42.74329592507166</v>
       </c>
       <c r="R14">
-        <v>449.370356665675</v>
+        <v>384.689663325645</v>
       </c>
       <c r="S14">
-        <v>0.1031331092600982</v>
+        <v>0.05859294123499524</v>
       </c>
       <c r="T14">
-        <v>0.1061147940745648</v>
+        <v>0.05902776469265303</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.7443023333333333</v>
+        <v>0.3941096666666666</v>
       </c>
       <c r="H15">
-        <v>2.232907</v>
+        <v>1.182329</v>
       </c>
       <c r="I15">
-        <v>0.2915583423989383</v>
+        <v>0.148275522597887</v>
       </c>
       <c r="J15">
-        <v>0.2968517908699051</v>
+        <v>0.148275522597887</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.947122</v>
+        <v>6.0653095</v>
       </c>
       <c r="N15">
-        <v>11.894244</v>
+        <v>12.130619</v>
       </c>
       <c r="O15">
-        <v>0.03135934305434629</v>
+        <v>0.02209926768810472</v>
       </c>
       <c r="P15">
-        <v>0.02112707240667585</v>
+        <v>0.01484217888683478</v>
       </c>
       <c r="Q15">
-        <v>4.426456781218</v>
+        <v>2.390397105275166</v>
       </c>
       <c r="R15">
-        <v>26.558740687308</v>
+        <v>14.342382631651</v>
       </c>
       <c r="S15">
-        <v>0.009143078079644863</v>
+        <v>0.003276780465484325</v>
       </c>
       <c r="T15">
-        <v>0.006271609279759882</v>
+        <v>0.002200731830936751</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.7443023333333333</v>
+        <v>0.3941096666666666</v>
       </c>
       <c r="H16">
-        <v>2.232907</v>
+        <v>1.182329</v>
       </c>
       <c r="I16">
-        <v>0.2915583423989383</v>
+        <v>0.148275522597887</v>
       </c>
       <c r="J16">
-        <v>0.2968517908699051</v>
+        <v>0.148275522597887</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,648 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.05939466666666</v>
+        <v>104.823008</v>
       </c>
       <c r="N16">
-        <v>180.178184</v>
+        <v>314.469024</v>
       </c>
       <c r="O16">
-        <v>0.3166948922501296</v>
+        <v>0.3819280308225561</v>
       </c>
       <c r="P16">
-        <v>0.3200403102098262</v>
+        <v>0.3847623529002386</v>
       </c>
       <c r="Q16">
-        <v>44.70234758898755</v>
+        <v>41.31176074187733</v>
       </c>
       <c r="R16">
-        <v>402.3211283008879</v>
+        <v>371.805846676896</v>
       </c>
       <c r="S16">
-        <v>0.09233503783065818</v>
+        <v>0.0566305783649964</v>
       </c>
       <c r="T16">
-        <v>0.09500453923634687</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.5</v>
-      </c>
-      <c r="G17">
-        <v>0.1365665</v>
-      </c>
-      <c r="H17">
-        <v>0.273133</v>
-      </c>
-      <c r="I17">
-        <v>0.05349587201870649</v>
-      </c>
-      <c r="J17">
-        <v>0.03631141834195056</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>27.68083366666667</v>
-      </c>
-      <c r="N17">
-        <v>83.042501</v>
-      </c>
-      <c r="O17">
-        <v>0.1459618213622149</v>
-      </c>
-      <c r="P17">
-        <v>0.1475036943464798</v>
-      </c>
-      <c r="Q17">
-        <v>3.780274570938834</v>
-      </c>
-      <c r="R17">
-        <v>22.681647425633</v>
-      </c>
-      <c r="S17">
-        <v>0.007808354915210347</v>
-      </c>
-      <c r="T17">
-        <v>0.005356068352398236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.5</v>
-      </c>
-      <c r="G18">
-        <v>0.1365665</v>
-      </c>
-      <c r="H18">
-        <v>0.273133</v>
-      </c>
-      <c r="I18">
-        <v>0.05349587201870649</v>
-      </c>
-      <c r="J18">
-        <v>0.03631141834195056</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>28.873984</v>
-      </c>
-      <c r="N18">
-        <v>86.62195199999999</v>
-      </c>
-      <c r="O18">
-        <v>0.1522533369252734</v>
-      </c>
-      <c r="P18">
-        <v>0.1538616705619625</v>
-      </c>
-      <c r="Q18">
-        <v>3.943218935936</v>
-      </c>
-      <c r="R18">
-        <v>23.659313615616</v>
-      </c>
-      <c r="S18">
-        <v>0.008144925026575423</v>
-      </c>
-      <c r="T18">
-        <v>0.0055869354865668</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.5</v>
-      </c>
-      <c r="G19">
-        <v>0.1365665</v>
-      </c>
-      <c r="H19">
-        <v>0.273133</v>
-      </c>
-      <c r="I19">
-        <v>0.05349587201870649</v>
-      </c>
-      <c r="J19">
-        <v>0.03631141834195056</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>67.08300833333332</v>
-      </c>
-      <c r="N19">
-        <v>201.249025</v>
-      </c>
-      <c r="O19">
-        <v>0.3537306064080358</v>
-      </c>
-      <c r="P19">
-        <v>0.3574672524750558</v>
-      </c>
-      <c r="Q19">
-        <v>9.161291657554166</v>
-      </c>
-      <c r="R19">
-        <v>54.967749945325</v>
-      </c>
-      <c r="S19">
-        <v>0.01892312724950372</v>
-      </c>
-      <c r="T19">
-        <v>0.01298014294816941</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.5</v>
-      </c>
-      <c r="G20">
-        <v>0.1365665</v>
-      </c>
-      <c r="H20">
-        <v>0.273133</v>
-      </c>
-      <c r="I20">
-        <v>0.05349587201870649</v>
-      </c>
-      <c r="J20">
-        <v>0.03631141834195056</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>5.947122</v>
-      </c>
-      <c r="N20">
-        <v>11.894244</v>
-      </c>
-      <c r="O20">
-        <v>0.03135934305434629</v>
-      </c>
-      <c r="P20">
-        <v>0.02112707240667585</v>
-      </c>
-      <c r="Q20">
-        <v>0.8121776366130001</v>
-      </c>
-      <c r="R20">
-        <v>3.248710546452001</v>
-      </c>
-      <c r="S20">
-        <v>0.001677595402626021</v>
-      </c>
-      <c r="T20">
-        <v>0.0007671539644994869</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.5</v>
-      </c>
-      <c r="G21">
-        <v>0.1365665</v>
-      </c>
-      <c r="H21">
-        <v>0.273133</v>
-      </c>
-      <c r="I21">
-        <v>0.05349587201870649</v>
-      </c>
-      <c r="J21">
-        <v>0.03631141834195056</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>60.05939466666666</v>
-      </c>
-      <c r="N21">
-        <v>180.178184</v>
-      </c>
-      <c r="O21">
-        <v>0.3166948922501296</v>
-      </c>
-      <c r="P21">
-        <v>0.3200403102098262</v>
-      </c>
-      <c r="Q21">
-        <v>8.202101321745333</v>
-      </c>
-      <c r="R21">
-        <v>49.212607930472</v>
-      </c>
-      <c r="S21">
-        <v>0.01694186942479097</v>
-      </c>
-      <c r="T21">
-        <v>0.01162111759031663</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.6419946666666667</v>
-      </c>
-      <c r="H22">
-        <v>1.925984</v>
-      </c>
-      <c r="I22">
-        <v>0.2514823512698365</v>
-      </c>
-      <c r="J22">
-        <v>0.2560481917011247</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>27.68083366666667</v>
-      </c>
-      <c r="N22">
-        <v>83.042501</v>
-      </c>
-      <c r="O22">
-        <v>0.1459618213622149</v>
-      </c>
-      <c r="P22">
-        <v>0.1475036943464798</v>
-      </c>
-      <c r="Q22">
-        <v>17.77094758288711</v>
-      </c>
-      <c r="R22">
-        <v>159.938528245984</v>
-      </c>
-      <c r="S22">
-        <v>0.03670682203179765</v>
-      </c>
-      <c r="T22">
-        <v>0.03776805420665157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.6419946666666667</v>
-      </c>
-      <c r="H23">
-        <v>1.925984</v>
-      </c>
-      <c r="I23">
-        <v>0.2514823512698365</v>
-      </c>
-      <c r="J23">
-        <v>0.2560481917011247</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>28.873984</v>
-      </c>
-      <c r="N23">
-        <v>86.62195199999999</v>
-      </c>
-      <c r="O23">
-        <v>0.1522533369252734</v>
-      </c>
-      <c r="P23">
-        <v>0.1538616705619625</v>
-      </c>
-      <c r="Q23">
-        <v>18.53694373341867</v>
-      </c>
-      <c r="R23">
-        <v>166.832493600768</v>
-      </c>
-      <c r="S23">
-        <v>0.03828902715864637</v>
-      </c>
-      <c r="T23">
-        <v>0.03939600251950467</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.6419946666666667</v>
-      </c>
-      <c r="H24">
-        <v>1.925984</v>
-      </c>
-      <c r="I24">
-        <v>0.2514823512698365</v>
-      </c>
-      <c r="J24">
-        <v>0.2560481917011247</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>67.08300833333332</v>
-      </c>
-      <c r="N24">
-        <v>201.249025</v>
-      </c>
-      <c r="O24">
-        <v>0.3537306064080358</v>
-      </c>
-      <c r="P24">
-        <v>0.3574672524750558</v>
-      </c>
-      <c r="Q24">
-        <v>43.06693357395555</v>
-      </c>
-      <c r="R24">
-        <v>387.6024021656</v>
-      </c>
-      <c r="S24">
-        <v>0.08895700461559794</v>
-      </c>
-      <c r="T24">
-        <v>0.09152884358860743</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.6419946666666667</v>
-      </c>
-      <c r="H25">
-        <v>1.925984</v>
-      </c>
-      <c r="I25">
-        <v>0.2514823512698365</v>
-      </c>
-      <c r="J25">
-        <v>0.2560481917011247</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>5.947122</v>
-      </c>
-      <c r="N25">
-        <v>11.894244</v>
-      </c>
-      <c r="O25">
-        <v>0.03135934305434629</v>
-      </c>
-      <c r="P25">
-        <v>0.02112707240667585</v>
-      </c>
-      <c r="Q25">
-        <v>3.818020606016</v>
-      </c>
-      <c r="R25">
-        <v>22.908123636096</v>
-      </c>
-      <c r="S25">
-        <v>0.007886321325584422</v>
-      </c>
-      <c r="T25">
-        <v>0.00540954868566808</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.6419946666666667</v>
-      </c>
-      <c r="H26">
-        <v>1.925984</v>
-      </c>
-      <c r="I26">
-        <v>0.2514823512698365</v>
-      </c>
-      <c r="J26">
-        <v>0.2560481917011247</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>60.05939466666666</v>
-      </c>
-      <c r="N26">
-        <v>180.178184</v>
-      </c>
-      <c r="O26">
-        <v>0.3166948922501296</v>
-      </c>
-      <c r="P26">
-        <v>0.3200403102098262</v>
-      </c>
-      <c r="Q26">
-        <v>38.55781105922844</v>
-      </c>
-      <c r="R26">
-        <v>347.020299533056</v>
-      </c>
-      <c r="S26">
-        <v>0.07964317613821013</v>
-      </c>
-      <c r="T26">
-        <v>0.08194574270069298</v>
+        <v>0.05705083895227548</v>
       </c>
     </row>
   </sheetData>
